--- a/Financials/Yearly/UOVEY_YR_FIN.xlsx
+++ b/Financials/Yearly/UOVEY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FF6DEA-6084-4F82-952D-D397B1DD139C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UOVEY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>UOVEY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -706,34 +741,34 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6647600</v>
+        <v>6692600</v>
       </c>
       <c r="E8" s="3">
-        <v>6071900</v>
+        <v>6113000</v>
       </c>
       <c r="F8" s="3">
-        <v>5731800</v>
+        <v>5770600</v>
       </c>
       <c r="G8" s="3">
-        <v>5265400</v>
+        <v>5301100</v>
       </c>
       <c r="H8" s="3">
-        <v>4766500</v>
+        <v>4798800</v>
       </c>
       <c r="I8" s="3">
-        <v>4542000</v>
+        <v>4572800</v>
       </c>
       <c r="J8" s="3">
-        <v>4131000</v>
+        <v>4159000</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -760,7 +795,7 @@
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -787,7 +822,7 @@
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,7 +835,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -827,7 +862,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,7 +889,7 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -881,7 +916,7 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -908,7 +943,7 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,61 +953,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3131600</v>
+        <v>3152800</v>
       </c>
       <c r="E17" s="3">
-        <v>2851600</v>
+        <v>2870900</v>
       </c>
       <c r="F17" s="3">
-        <v>2615800</v>
+        <v>2633500</v>
       </c>
       <c r="G17" s="3">
-        <v>2392600</v>
+        <v>2408800</v>
       </c>
       <c r="H17" s="3">
-        <v>2063300</v>
+        <v>2077300</v>
       </c>
       <c r="I17" s="3">
-        <v>2022100</v>
+        <v>2035800</v>
       </c>
       <c r="J17" s="3">
-        <v>1820500</v>
+        <v>1832900</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3515900</v>
+        <v>3539700</v>
       </c>
       <c r="E18" s="3">
-        <v>3220300</v>
+        <v>3242100</v>
       </c>
       <c r="F18" s="3">
-        <v>3116000</v>
+        <v>3137100</v>
       </c>
       <c r="G18" s="3">
-        <v>2872700</v>
+        <v>2892200</v>
       </c>
       <c r="H18" s="3">
-        <v>2703200</v>
+        <v>2721500</v>
       </c>
       <c r="I18" s="3">
-        <v>2519900</v>
+        <v>2537000</v>
       </c>
       <c r="J18" s="3">
-        <v>2310500</v>
+        <v>2326200</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,61 +1020,61 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-434900</v>
+        <v>-437900</v>
       </c>
       <c r="E20" s="3">
-        <v>-454100</v>
+        <v>-457200</v>
       </c>
       <c r="F20" s="3">
-        <v>-282600</v>
+        <v>-284500</v>
       </c>
       <c r="G20" s="3">
-        <v>-71500</v>
+        <v>-71900</v>
       </c>
       <c r="H20" s="3">
-        <v>-78200</v>
+        <v>-78800</v>
       </c>
       <c r="I20" s="3">
-        <v>-65500</v>
+        <v>-66000</v>
       </c>
       <c r="J20" s="3">
-        <v>-254000</v>
+        <v>-255700</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3270100</v>
+        <v>3292500</v>
       </c>
       <c r="E21" s="3">
-        <v>2928500</v>
+        <v>2948500</v>
       </c>
       <c r="F21" s="3">
-        <v>2966300</v>
+        <v>2986500</v>
       </c>
       <c r="G21" s="3">
-        <v>2920900</v>
+        <v>2940800</v>
       </c>
       <c r="H21" s="3">
-        <v>2720200</v>
+        <v>2738700</v>
       </c>
       <c r="I21" s="3">
-        <v>2543300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2141200</v>
+        <v>2560600</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1066,61 +1101,61 @@
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3081000</v>
+        <v>3101900</v>
       </c>
       <c r="E23" s="3">
-        <v>2766200</v>
+        <v>2784900</v>
       </c>
       <c r="F23" s="3">
-        <v>2833400</v>
+        <v>2852600</v>
       </c>
       <c r="G23" s="3">
-        <v>2801300</v>
+        <v>2820300</v>
       </c>
       <c r="H23" s="3">
-        <v>2625000</v>
+        <v>2642800</v>
       </c>
       <c r="I23" s="3">
-        <v>2454400</v>
+        <v>2471000</v>
       </c>
       <c r="J23" s="3">
-        <v>2056500</v>
+        <v>2070400</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>586000</v>
+        <v>590000</v>
       </c>
       <c r="E24" s="3">
-        <v>489900</v>
+        <v>493300</v>
       </c>
       <c r="F24" s="3">
-        <v>475100</v>
+        <v>478300</v>
       </c>
       <c r="G24" s="3">
-        <v>410600</v>
+        <v>413400</v>
       </c>
       <c r="H24" s="3">
-        <v>409400</v>
+        <v>412200</v>
       </c>
       <c r="I24" s="3">
-        <v>388600</v>
+        <v>391300</v>
       </c>
       <c r="J24" s="3">
-        <v>342200</v>
+        <v>344500</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,61 +1182,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2495000</v>
+        <v>2511900</v>
       </c>
       <c r="E26" s="3">
-        <v>2276200</v>
+        <v>2291600</v>
       </c>
       <c r="F26" s="3">
-        <v>2358300</v>
+        <v>2374300</v>
       </c>
       <c r="G26" s="3">
-        <v>2390700</v>
+        <v>2406900</v>
       </c>
       <c r="H26" s="3">
-        <v>2215500</v>
+        <v>2230500</v>
       </c>
       <c r="I26" s="3">
-        <v>2065700</v>
+        <v>2079700</v>
       </c>
       <c r="J26" s="3">
-        <v>1714300</v>
+        <v>1725900</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2408100</v>
+        <v>2424400</v>
       </c>
       <c r="E27" s="3">
-        <v>2200000</v>
+        <v>2214900</v>
       </c>
       <c r="F27" s="3">
-        <v>2273000</v>
+        <v>2288400</v>
       </c>
       <c r="G27" s="3">
-        <v>2304800</v>
+        <v>2320400</v>
       </c>
       <c r="H27" s="3">
-        <v>2127400</v>
+        <v>2141800</v>
       </c>
       <c r="I27" s="3">
-        <v>1977600</v>
+        <v>1991000</v>
       </c>
       <c r="J27" s="3">
-        <v>1628800</v>
+        <v>1639900</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,7 +1263,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1255,7 +1290,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,7 +1317,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,61 +1344,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>434900</v>
+        <v>437900</v>
       </c>
       <c r="E32" s="3">
-        <v>454100</v>
+        <v>457200</v>
       </c>
       <c r="F32" s="3">
-        <v>282600</v>
+        <v>284500</v>
       </c>
       <c r="G32" s="3">
-        <v>71500</v>
+        <v>71900</v>
       </c>
       <c r="H32" s="3">
-        <v>78200</v>
+        <v>78800</v>
       </c>
       <c r="I32" s="3">
-        <v>65500</v>
+        <v>66000</v>
       </c>
       <c r="J32" s="3">
-        <v>254000</v>
+        <v>255700</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2408100</v>
+        <v>2424400</v>
       </c>
       <c r="E33" s="3">
-        <v>2200000</v>
+        <v>2214900</v>
       </c>
       <c r="F33" s="3">
-        <v>2273000</v>
+        <v>2288400</v>
       </c>
       <c r="G33" s="3">
-        <v>2304800</v>
+        <v>2320400</v>
       </c>
       <c r="H33" s="3">
-        <v>2127400</v>
+        <v>2141800</v>
       </c>
       <c r="I33" s="3">
-        <v>1977600</v>
+        <v>1991000</v>
       </c>
       <c r="J33" s="3">
-        <v>1628800</v>
+        <v>1639900</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,39 +1425,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2408100</v>
+        <v>2424400</v>
       </c>
       <c r="E35" s="3">
-        <v>2200000</v>
+        <v>2214900</v>
       </c>
       <c r="F35" s="3">
-        <v>2273000</v>
+        <v>2288400</v>
       </c>
       <c r="G35" s="3">
-        <v>2304800</v>
+        <v>2320400</v>
       </c>
       <c r="H35" s="3">
-        <v>2127400</v>
+        <v>2141800</v>
       </c>
       <c r="I35" s="3">
-        <v>1977600</v>
+        <v>1991000</v>
       </c>
       <c r="J35" s="3">
-        <v>1628800</v>
+        <v>1639900</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1484,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,7 +1497,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,61 +1510,61 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>57716700</v>
+        <v>77739500</v>
       </c>
       <c r="E41" s="3">
-        <v>47133000</v>
+        <v>47452200</v>
       </c>
       <c r="F41" s="3">
-        <v>44640300</v>
+        <v>44942600</v>
       </c>
       <c r="G41" s="3">
-        <v>46708100</v>
+        <v>47024500</v>
       </c>
       <c r="H41" s="3">
-        <v>42692700</v>
+        <v>42981800</v>
       </c>
       <c r="I41" s="3">
-        <v>35921500</v>
+        <v>36164800</v>
       </c>
       <c r="J41" s="3">
-        <v>19618000</v>
+        <v>19750800</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9549500</v>
+        <v>9614300</v>
       </c>
       <c r="E42" s="3">
-        <v>10815200</v>
+        <v>10888500</v>
       </c>
       <c r="F42" s="3">
-        <v>8670800</v>
+        <v>8729500</v>
       </c>
       <c r="G42" s="3">
-        <v>8918900</v>
+        <v>8979300</v>
       </c>
       <c r="H42" s="3">
-        <v>11295800</v>
+        <v>11372300</v>
       </c>
       <c r="I42" s="3">
-        <v>8341200</v>
+        <v>8397700</v>
       </c>
       <c r="J42" s="3">
-        <v>198700</v>
+        <v>200100</v>
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1556,7 +1591,7 @@
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1583,7 +1618,7 @@
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1610,7 +1645,7 @@
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1637,88 +1672,88 @@
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>874800</v>
+        <v>880400</v>
       </c>
       <c r="E47" s="3">
-        <v>812200</v>
+        <v>817700</v>
       </c>
       <c r="F47" s="3">
-        <v>810000</v>
+        <v>815500</v>
       </c>
       <c r="G47" s="3">
-        <v>871100</v>
+        <v>877000</v>
       </c>
       <c r="H47" s="3">
-        <v>729900</v>
+        <v>734800</v>
       </c>
       <c r="I47" s="3">
-        <v>807100</v>
+        <v>812600</v>
       </c>
       <c r="J47" s="3">
-        <v>800000</v>
+        <v>805400</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2240500</v>
+        <v>4511200</v>
       </c>
       <c r="E48" s="3">
-        <v>2189700</v>
+        <v>2204500</v>
       </c>
       <c r="F48" s="3">
-        <v>2085200</v>
+        <v>2099300</v>
       </c>
       <c r="G48" s="3">
-        <v>1749300</v>
+        <v>1761100</v>
       </c>
       <c r="H48" s="3">
-        <v>1679600</v>
+        <v>1691000</v>
       </c>
       <c r="I48" s="3">
-        <v>3295500</v>
+        <v>3317800</v>
       </c>
       <c r="J48" s="3">
-        <v>1593800</v>
+        <v>1604600</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3033500</v>
+        <v>6108100</v>
       </c>
       <c r="E49" s="3">
-        <v>3040200</v>
+        <v>3060800</v>
       </c>
       <c r="F49" s="3">
-        <v>3034900</v>
+        <v>3055400</v>
       </c>
       <c r="G49" s="3">
-        <v>3038900</v>
+        <v>3059500</v>
       </c>
       <c r="H49" s="3">
-        <v>3034900</v>
+        <v>3055400</v>
       </c>
       <c r="I49" s="3">
-        <v>6105400</v>
+        <v>6146800</v>
       </c>
       <c r="J49" s="3">
-        <v>3073100</v>
+        <v>3093900</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,7 +1780,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,34 +1807,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>141500</v>
+        <v>142500</v>
       </c>
       <c r="E52" s="3">
-        <v>183900</v>
+        <v>185100</v>
       </c>
       <c r="F52" s="3">
-        <v>166300</v>
+        <v>167400</v>
       </c>
       <c r="G52" s="3">
-        <v>169600</v>
+        <v>170800</v>
       </c>
       <c r="H52" s="3">
-        <v>210700</v>
+        <v>212100</v>
       </c>
       <c r="I52" s="3">
-        <v>217300</v>
+        <v>218800</v>
       </c>
       <c r="J52" s="3">
-        <v>244500</v>
+        <v>246200</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,34 +1861,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>262630000</v>
+        <v>264408000</v>
       </c>
       <c r="E54" s="3">
-        <v>249033000</v>
+        <v>250719000</v>
       </c>
       <c r="F54" s="3">
-        <v>231443000</v>
+        <v>233011000</v>
       </c>
       <c r="G54" s="3">
-        <v>224651000</v>
+        <v>226172000</v>
       </c>
       <c r="H54" s="3">
-        <v>208167000</v>
+        <v>209576000</v>
       </c>
       <c r="I54" s="3">
-        <v>185221000</v>
+        <v>186476000</v>
       </c>
       <c r="J54" s="3">
-        <v>173546000</v>
+        <v>174721000</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,7 +1901,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,34 +1914,34 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2611300</v>
+        <v>2629000</v>
       </c>
       <c r="E57" s="3">
-        <v>3062800</v>
+        <v>3083500</v>
       </c>
       <c r="F57" s="3">
-        <v>2658600</v>
+        <v>2676600</v>
       </c>
       <c r="G57" s="3">
-        <v>1443900</v>
+        <v>1453700</v>
       </c>
       <c r="H57" s="3">
-        <v>1392200</v>
+        <v>1401600</v>
       </c>
       <c r="I57" s="3">
-        <v>390700</v>
+        <v>393300</v>
       </c>
       <c r="J57" s="3">
-        <v>290700</v>
+        <v>292600</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1933,34 +1968,34 @@
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1091300</v>
+        <v>1098700</v>
       </c>
       <c r="E59" s="3">
-        <v>844300</v>
+        <v>850000</v>
       </c>
       <c r="F59" s="3">
-        <v>838700</v>
+        <v>844400</v>
       </c>
       <c r="G59" s="3">
-        <v>754500</v>
+        <v>759600</v>
       </c>
       <c r="H59" s="3">
-        <v>827400</v>
+        <v>833000</v>
       </c>
       <c r="I59" s="3">
-        <v>880600</v>
+        <v>886600</v>
       </c>
       <c r="J59" s="3">
-        <v>799600</v>
+        <v>805000</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1987,61 +2022,61 @@
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18440400</v>
+        <v>18565000</v>
       </c>
       <c r="E61" s="3">
-        <v>19146800</v>
+        <v>19276500</v>
       </c>
       <c r="F61" s="3">
-        <v>14858900</v>
+        <v>14959600</v>
       </c>
       <c r="G61" s="3">
-        <v>15346000</v>
+        <v>15449900</v>
       </c>
       <c r="H61" s="3">
-        <v>13901700</v>
+        <v>13995900</v>
       </c>
       <c r="I61" s="3">
-        <v>9374600</v>
+        <v>9438100</v>
       </c>
       <c r="J61" s="3">
-        <v>8631900</v>
+        <v>8690400</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>130400</v>
+        <v>131200</v>
       </c>
       <c r="E62" s="3">
-        <v>169800</v>
+        <v>171000</v>
       </c>
       <c r="F62" s="3">
-        <v>140300</v>
+        <v>141300</v>
       </c>
       <c r="G62" s="3">
-        <v>117500</v>
+        <v>118300</v>
       </c>
       <c r="H62" s="3">
-        <v>63300</v>
+        <v>63700</v>
       </c>
       <c r="I62" s="3">
-        <v>15900</v>
+        <v>16000</v>
       </c>
       <c r="J62" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2103,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,7 +2130,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,34 +2157,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>235641000</v>
+        <v>237237000</v>
       </c>
       <c r="E66" s="3">
-        <v>224957000</v>
+        <v>226480000</v>
       </c>
       <c r="F66" s="3">
-        <v>208909000</v>
+        <v>210324000</v>
       </c>
       <c r="G66" s="3">
-        <v>202994000</v>
+        <v>204369000</v>
       </c>
       <c r="H66" s="3">
-        <v>188840000</v>
+        <v>190119000</v>
       </c>
       <c r="I66" s="3">
-        <v>166853000</v>
+        <v>167983000</v>
       </c>
       <c r="J66" s="3">
-        <v>156725000</v>
+        <v>157786000</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,7 +2197,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2224,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,7 +2251,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2227,13 +2262,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>609000</v>
+        <v>613100</v>
       </c>
       <c r="G70" s="3">
-        <v>609000</v>
+        <v>613100</v>
       </c>
       <c r="H70" s="3">
-        <v>609000</v>
+        <v>613100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2243,7 +2278,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,34 +2305,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21312100</v>
+        <v>28370400</v>
       </c>
       <c r="E72" s="3">
-        <v>19757700</v>
+        <v>19891600</v>
       </c>
       <c r="F72" s="3">
-        <v>18374000</v>
+        <v>18498400</v>
       </c>
       <c r="G72" s="3">
-        <v>17401400</v>
+        <v>17519300</v>
       </c>
       <c r="H72" s="3">
-        <v>15948900</v>
+        <v>16056900</v>
       </c>
       <c r="I72" s="3">
-        <v>22404100</v>
+        <v>22555800</v>
       </c>
       <c r="J72" s="3">
-        <v>13605200</v>
+        <v>13697400</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,7 +2359,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,7 +2386,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,34 +2413,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>26988500</v>
+        <v>27171300</v>
       </c>
       <c r="E76" s="3">
-        <v>24076000</v>
+        <v>24239000</v>
       </c>
       <c r="F76" s="3">
-        <v>21925500</v>
+        <v>22074000</v>
       </c>
       <c r="G76" s="3">
-        <v>21047300</v>
+        <v>21189900</v>
       </c>
       <c r="H76" s="3">
-        <v>18717200</v>
+        <v>18844000</v>
       </c>
       <c r="I76" s="3">
-        <v>18368300</v>
+        <v>18492700</v>
       </c>
       <c r="J76" s="3">
-        <v>16820900</v>
+        <v>16934800</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,12 +2467,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2464,34 +2499,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2408100</v>
+        <v>2424400</v>
       </c>
       <c r="E81" s="3">
-        <v>2200000</v>
+        <v>2214900</v>
       </c>
       <c r="F81" s="3">
-        <v>2273000</v>
+        <v>2288400</v>
       </c>
       <c r="G81" s="3">
-        <v>2304800</v>
+        <v>2320400</v>
       </c>
       <c r="H81" s="3">
-        <v>2127400</v>
+        <v>2141800</v>
       </c>
       <c r="I81" s="3">
-        <v>1977600</v>
+        <v>1991000</v>
       </c>
       <c r="J81" s="3">
-        <v>1628800</v>
+        <v>1639900</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,34 +2539,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>189200</v>
+        <v>190400</v>
       </c>
       <c r="E83" s="3">
-        <v>162400</v>
+        <v>163500</v>
       </c>
       <c r="F83" s="3">
-        <v>132900</v>
+        <v>133800</v>
       </c>
       <c r="G83" s="3">
-        <v>119600</v>
+        <v>120500</v>
       </c>
       <c r="H83" s="3">
-        <v>95200</v>
+        <v>95900</v>
       </c>
       <c r="I83" s="3">
-        <v>89000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>84700</v>
+        <v>89600</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,7 +2593,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,7 +2620,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,7 +2647,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,7 +2674,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,34 +2701,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2862900</v>
+        <v>2882300</v>
       </c>
       <c r="E89" s="3">
-        <v>-9750700</v>
+        <v>-9816700</v>
       </c>
       <c r="F89" s="3">
-        <v>484200</v>
+        <v>487500</v>
       </c>
       <c r="G89" s="3">
-        <v>5207900</v>
+        <v>5243200</v>
       </c>
       <c r="H89" s="3">
-        <v>-8565400</v>
+        <v>-8623400</v>
       </c>
       <c r="I89" s="3">
-        <v>4643400</v>
+        <v>4674800</v>
       </c>
       <c r="J89" s="3">
-        <v>-7001300</v>
+        <v>-7048700</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,34 +2741,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-255900</v>
+        <v>-257600</v>
       </c>
       <c r="E91" s="3">
-        <v>-280400</v>
+        <v>-282300</v>
       </c>
       <c r="F91" s="3">
-        <v>-506800</v>
+        <v>-510200</v>
       </c>
       <c r="G91" s="3">
-        <v>-189400</v>
+        <v>-190700</v>
       </c>
       <c r="H91" s="3">
-        <v>-162100</v>
+        <v>-163200</v>
       </c>
       <c r="I91" s="3">
-        <v>-161500</v>
+        <v>-162600</v>
       </c>
       <c r="J91" s="3">
-        <v>-137000</v>
+        <v>-138000</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,7 +2795,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,34 +2822,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-249700</v>
+        <v>-251400</v>
       </c>
       <c r="E94" s="3">
-        <v>-279700</v>
+        <v>-281600</v>
       </c>
       <c r="F94" s="3">
-        <v>-354100</v>
+        <v>-356500</v>
       </c>
       <c r="G94" s="3">
-        <v>44400</v>
+        <v>44700</v>
       </c>
       <c r="H94" s="3">
-        <v>-52000</v>
+        <v>-52400</v>
       </c>
       <c r="I94" s="3">
-        <v>-49700</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-12200</v>
+        <v>-50000</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,34 +2862,34 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-487000</v>
+        <v>-490300</v>
       </c>
       <c r="E96" s="3">
-        <v>-682600</v>
+        <v>-687200</v>
       </c>
       <c r="F96" s="3">
-        <v>-1085800</v>
+        <v>-1093200</v>
       </c>
       <c r="G96" s="3">
-        <v>-518300</v>
+        <v>-521800</v>
       </c>
       <c r="H96" s="3">
-        <v>-883000</v>
+        <v>-889000</v>
       </c>
       <c r="I96" s="3">
-        <v>-766800</v>
+        <v>-771900</v>
       </c>
       <c r="J96" s="3">
-        <v>-470800</v>
+        <v>-474000</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +2916,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,7 +2943,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,84 +2970,84 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-257900</v>
+        <v>-259600</v>
       </c>
       <c r="E100" s="3">
-        <v>3458600</v>
+        <v>3482000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1714500</v>
+        <v>-1726100</v>
       </c>
       <c r="G100" s="3">
-        <v>877200</v>
+        <v>883100</v>
       </c>
       <c r="H100" s="3">
-        <v>3642200</v>
+        <v>3666800</v>
       </c>
       <c r="I100" s="3">
-        <v>-36200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>3561200</v>
+        <v>-36500</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-469800</v>
+        <v>-473000</v>
       </c>
       <c r="E101" s="3">
-        <v>106900</v>
+        <v>107600</v>
       </c>
       <c r="F101" s="3">
-        <v>-229300</v>
+        <v>-230800</v>
       </c>
       <c r="G101" s="3">
-        <v>66700</v>
+        <v>67200</v>
       </c>
       <c r="H101" s="3">
-        <v>-187400</v>
+        <v>-188700</v>
       </c>
       <c r="I101" s="3">
-        <v>-238400</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-24300</v>
+        <v>-240000</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1885500</v>
+        <v>1898300</v>
       </c>
       <c r="E102" s="3">
-        <v>-6464800</v>
+        <v>-6508600</v>
       </c>
       <c r="F102" s="3">
-        <v>-1813700</v>
+        <v>-1826000</v>
       </c>
       <c r="G102" s="3">
-        <v>6196200</v>
+        <v>6238200</v>
       </c>
       <c r="H102" s="3">
-        <v>-5162600</v>
+        <v>-5197600</v>
       </c>
       <c r="I102" s="3">
-        <v>4319100</v>
+        <v>4348400</v>
       </c>
       <c r="J102" s="3">
-        <v>-3476600</v>
+        <v>-3500100</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/UOVEY_YR_FIN.xlsx
+++ b/Financials/Yearly/UOVEY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FF6DEA-6084-4F82-952D-D397B1DD139C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="UOVEY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>UOVEY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,86 +654,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6692600</v>
+        <v>8041100</v>
       </c>
       <c r="E8" s="3">
-        <v>6113000</v>
+        <v>6551100</v>
       </c>
       <c r="F8" s="3">
-        <v>5770600</v>
+        <v>5983800</v>
       </c>
       <c r="G8" s="3">
-        <v>5301100</v>
+        <v>5648600</v>
       </c>
       <c r="H8" s="3">
-        <v>4798800</v>
+        <v>5189000</v>
       </c>
       <c r="I8" s="3">
-        <v>4572800</v>
+        <v>4697400</v>
       </c>
       <c r="J8" s="3">
+        <v>4476100</v>
+      </c>
+      <c r="K8" s="3">
         <v>4159000</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -793,9 +764,12 @@
       <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -820,9 +794,12 @@
       <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -834,8 +811,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -860,9 +838,12 @@
       <c r="J12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,9 +868,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -914,9 +898,12 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,18 +919,21 @@
       <c r="G15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I15" s="3">
-        <v>-5400</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="K15" s="3">
         <v>-7700</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -952,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3152800</v>
+        <v>3835200</v>
       </c>
       <c r="E17" s="3">
-        <v>2870900</v>
+        <v>3086200</v>
       </c>
       <c r="F17" s="3">
-        <v>2633500</v>
+        <v>2810200</v>
       </c>
       <c r="G17" s="3">
-        <v>2408800</v>
+        <v>2577800</v>
       </c>
       <c r="H17" s="3">
-        <v>2077300</v>
+        <v>2357900</v>
       </c>
       <c r="I17" s="3">
-        <v>2035800</v>
+        <v>2033400</v>
       </c>
       <c r="J17" s="3">
+        <v>1992800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1832900</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3539700</v>
+        <v>4205900</v>
       </c>
       <c r="E18" s="3">
-        <v>3242100</v>
+        <v>3464900</v>
       </c>
       <c r="F18" s="3">
-        <v>3137100</v>
+        <v>3173600</v>
       </c>
       <c r="G18" s="3">
-        <v>2892200</v>
+        <v>3070700</v>
       </c>
       <c r="H18" s="3">
-        <v>2721500</v>
+        <v>2831100</v>
       </c>
       <c r="I18" s="3">
-        <v>2537000</v>
+        <v>2664000</v>
       </c>
       <c r="J18" s="3">
+        <v>2483300</v>
+      </c>
+      <c r="K18" s="3">
         <v>2326200</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,62 +1016,69 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-437900</v>
+        <v>-722500</v>
       </c>
       <c r="E20" s="3">
-        <v>-457200</v>
+        <v>-428600</v>
       </c>
       <c r="F20" s="3">
-        <v>-284500</v>
+        <v>-447500</v>
       </c>
       <c r="G20" s="3">
-        <v>-71900</v>
+        <v>-278500</v>
       </c>
       <c r="H20" s="3">
-        <v>-78800</v>
+        <v>-70400</v>
       </c>
       <c r="I20" s="3">
-        <v>-66000</v>
+        <v>-77100</v>
       </c>
       <c r="J20" s="3">
+        <v>-64600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-255700</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3292500</v>
+        <v>3680900</v>
       </c>
       <c r="E21" s="3">
-        <v>2948500</v>
+        <v>3223300</v>
       </c>
       <c r="F21" s="3">
-        <v>2986500</v>
+        <v>2886500</v>
       </c>
       <c r="G21" s="3">
-        <v>2940800</v>
+        <v>2923700</v>
       </c>
       <c r="H21" s="3">
-        <v>2738700</v>
+        <v>2878900</v>
       </c>
       <c r="I21" s="3">
-        <v>2560600</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+        <v>2681000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2506700</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1099,63 +1103,72 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3101900</v>
+        <v>3483400</v>
       </c>
       <c r="E23" s="3">
-        <v>2784900</v>
+        <v>3036300</v>
       </c>
       <c r="F23" s="3">
-        <v>2852600</v>
+        <v>2726000</v>
       </c>
       <c r="G23" s="3">
-        <v>2820300</v>
+        <v>2792300</v>
       </c>
       <c r="H23" s="3">
-        <v>2642800</v>
+        <v>2760600</v>
       </c>
       <c r="I23" s="3">
-        <v>2471000</v>
+        <v>2586900</v>
       </c>
       <c r="J23" s="3">
+        <v>2418700</v>
+      </c>
+      <c r="K23" s="3">
         <v>2070400</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>590000</v>
+        <v>581300</v>
       </c>
       <c r="E24" s="3">
-        <v>493300</v>
+        <v>577500</v>
       </c>
       <c r="F24" s="3">
-        <v>478300</v>
+        <v>482800</v>
       </c>
       <c r="G24" s="3">
-        <v>413400</v>
+        <v>468200</v>
       </c>
       <c r="H24" s="3">
-        <v>412200</v>
+        <v>404700</v>
       </c>
       <c r="I24" s="3">
-        <v>391300</v>
+        <v>403500</v>
       </c>
       <c r="J24" s="3">
+        <v>383000</v>
+      </c>
+      <c r="K24" s="3">
         <v>344500</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2511900</v>
+        <v>2902100</v>
       </c>
       <c r="E26" s="3">
-        <v>2291600</v>
+        <v>2458800</v>
       </c>
       <c r="F26" s="3">
-        <v>2374300</v>
+        <v>2243200</v>
       </c>
       <c r="G26" s="3">
-        <v>2406900</v>
+        <v>2324100</v>
       </c>
       <c r="H26" s="3">
-        <v>2230500</v>
+        <v>2356000</v>
       </c>
       <c r="I26" s="3">
-        <v>2079700</v>
+        <v>2183400</v>
       </c>
       <c r="J26" s="3">
+        <v>2035700</v>
+      </c>
+      <c r="K26" s="3">
         <v>1725900</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2424400</v>
+        <v>2812700</v>
       </c>
       <c r="E27" s="3">
-        <v>2214900</v>
+        <v>2373100</v>
       </c>
       <c r="F27" s="3">
-        <v>2288400</v>
+        <v>2168100</v>
       </c>
       <c r="G27" s="3">
-        <v>2320400</v>
+        <v>2240000</v>
       </c>
       <c r="H27" s="3">
-        <v>2141800</v>
+        <v>2271300</v>
       </c>
       <c r="I27" s="3">
-        <v>1991000</v>
+        <v>2096500</v>
       </c>
       <c r="J27" s="3">
+        <v>1948900</v>
+      </c>
+      <c r="K27" s="3">
         <v>1639900</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1261,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1288,9 +1313,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1315,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1342,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>437900</v>
+        <v>722500</v>
       </c>
       <c r="E32" s="3">
-        <v>457200</v>
+        <v>428600</v>
       </c>
       <c r="F32" s="3">
-        <v>284500</v>
+        <v>447500</v>
       </c>
       <c r="G32" s="3">
-        <v>71900</v>
+        <v>278500</v>
       </c>
       <c r="H32" s="3">
-        <v>78800</v>
+        <v>70400</v>
       </c>
       <c r="I32" s="3">
-        <v>66000</v>
+        <v>77100</v>
       </c>
       <c r="J32" s="3">
+        <v>64600</v>
+      </c>
+      <c r="K32" s="3">
         <v>255700</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2424400</v>
+        <v>2812700</v>
       </c>
       <c r="E33" s="3">
-        <v>2214900</v>
+        <v>2373100</v>
       </c>
       <c r="F33" s="3">
-        <v>2288400</v>
+        <v>2168100</v>
       </c>
       <c r="G33" s="3">
-        <v>2320400</v>
+        <v>2240000</v>
       </c>
       <c r="H33" s="3">
-        <v>2141800</v>
+        <v>2271300</v>
       </c>
       <c r="I33" s="3">
-        <v>1991000</v>
+        <v>2096500</v>
       </c>
       <c r="J33" s="3">
+        <v>1948900</v>
+      </c>
+      <c r="K33" s="3">
         <v>1639900</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1423,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2424400</v>
+        <v>2812700</v>
       </c>
       <c r="E35" s="3">
-        <v>2214900</v>
+        <v>2373100</v>
       </c>
       <c r="F35" s="3">
-        <v>2288400</v>
+        <v>2168100</v>
       </c>
       <c r="G35" s="3">
-        <v>2320400</v>
+        <v>2240000</v>
       </c>
       <c r="H35" s="3">
-        <v>2141800</v>
+        <v>2271300</v>
       </c>
       <c r="I35" s="3">
-        <v>1991000</v>
+        <v>2096500</v>
       </c>
       <c r="J35" s="3">
+        <v>1948900</v>
+      </c>
+      <c r="K35" s="3">
         <v>1639900</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1496,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1509,62 +1559,69 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>77739500</v>
+        <v>54891300</v>
       </c>
       <c r="E41" s="3">
-        <v>47452200</v>
+        <v>76095900</v>
       </c>
       <c r="F41" s="3">
-        <v>44942600</v>
+        <v>46448900</v>
       </c>
       <c r="G41" s="3">
-        <v>47024500</v>
+        <v>43992400</v>
       </c>
       <c r="H41" s="3">
-        <v>42981800</v>
+        <v>46030200</v>
       </c>
       <c r="I41" s="3">
-        <v>36164800</v>
+        <v>42073100</v>
       </c>
       <c r="J41" s="3">
+        <v>35400200</v>
+      </c>
+      <c r="K41" s="3">
         <v>19750800</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9614300</v>
+        <v>11174000</v>
       </c>
       <c r="E42" s="3">
-        <v>10888500</v>
+        <v>9410900</v>
       </c>
       <c r="F42" s="3">
-        <v>8729500</v>
+        <v>10658300</v>
       </c>
       <c r="G42" s="3">
-        <v>8979300</v>
+        <v>8545000</v>
       </c>
       <c r="H42" s="3">
-        <v>11372300</v>
+        <v>8789500</v>
       </c>
       <c r="I42" s="3">
-        <v>8397700</v>
+        <v>11131800</v>
       </c>
       <c r="J42" s="3">
+        <v>8220100</v>
+      </c>
+      <c r="K42" s="3">
         <v>200100</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1589,9 +1646,12 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1616,9 +1676,12 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1643,9 +1706,12 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1670,90 +1736,102 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>880400</v>
+        <v>844200</v>
       </c>
       <c r="E47" s="3">
-        <v>817700</v>
+        <v>862100</v>
       </c>
       <c r="F47" s="3">
-        <v>815500</v>
+        <v>800400</v>
       </c>
       <c r="G47" s="3">
-        <v>877000</v>
+        <v>798200</v>
       </c>
       <c r="H47" s="3">
-        <v>734800</v>
+        <v>858500</v>
       </c>
       <c r="I47" s="3">
-        <v>812600</v>
+        <v>719300</v>
       </c>
       <c r="J47" s="3">
+        <v>795400</v>
+      </c>
+      <c r="K47" s="3">
         <v>805400</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4511200</v>
+        <v>2365900</v>
       </c>
       <c r="E48" s="3">
-        <v>2204500</v>
+        <v>4415800</v>
       </c>
       <c r="F48" s="3">
-        <v>2099300</v>
+        <v>2157900</v>
       </c>
       <c r="G48" s="3">
-        <v>1761100</v>
+        <v>2054900</v>
       </c>
       <c r="H48" s="3">
-        <v>1691000</v>
+        <v>1723900</v>
       </c>
       <c r="I48" s="3">
-        <v>3317800</v>
+        <v>1655200</v>
       </c>
       <c r="J48" s="3">
+        <v>3247600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1604600</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6108100</v>
+        <v>2986900</v>
       </c>
       <c r="E49" s="3">
-        <v>3060800</v>
+        <v>5979000</v>
       </c>
       <c r="F49" s="3">
-        <v>3055400</v>
+        <v>2996100</v>
       </c>
       <c r="G49" s="3">
-        <v>3059500</v>
+        <v>2990800</v>
       </c>
       <c r="H49" s="3">
-        <v>3055400</v>
+        <v>2994800</v>
       </c>
       <c r="I49" s="3">
-        <v>6146800</v>
+        <v>2990800</v>
       </c>
       <c r="J49" s="3">
+        <v>6016800</v>
+      </c>
+      <c r="K49" s="3">
         <v>3093900</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1778,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1805,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>142500</v>
+        <v>204800</v>
       </c>
       <c r="E52" s="3">
-        <v>185100</v>
+        <v>139500</v>
       </c>
       <c r="F52" s="3">
-        <v>167400</v>
+        <v>181200</v>
       </c>
       <c r="G52" s="3">
-        <v>170800</v>
+        <v>163900</v>
       </c>
       <c r="H52" s="3">
-        <v>212100</v>
+        <v>167200</v>
       </c>
       <c r="I52" s="3">
-        <v>218800</v>
+        <v>207700</v>
       </c>
       <c r="J52" s="3">
+        <v>214100</v>
+      </c>
+      <c r="K52" s="3">
         <v>246200</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1859,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>264408000</v>
+        <v>280110000</v>
       </c>
       <c r="E54" s="3">
-        <v>250719000</v>
+        <v>258818000</v>
       </c>
       <c r="F54" s="3">
-        <v>233011000</v>
+        <v>245418000</v>
       </c>
       <c r="G54" s="3">
-        <v>226172000</v>
+        <v>228084000</v>
       </c>
       <c r="H54" s="3">
-        <v>209576000</v>
+        <v>221390000</v>
       </c>
       <c r="I54" s="3">
-        <v>186476000</v>
+        <v>205145000</v>
       </c>
       <c r="J54" s="3">
+        <v>182533000</v>
+      </c>
+      <c r="K54" s="3">
         <v>174721000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1900,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1913,35 +2007,39 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2629000</v>
+        <v>2497500</v>
       </c>
       <c r="E57" s="3">
-        <v>3083500</v>
+        <v>2573400</v>
       </c>
       <c r="F57" s="3">
-        <v>2676600</v>
+        <v>3018300</v>
       </c>
       <c r="G57" s="3">
-        <v>1453700</v>
+        <v>2620000</v>
       </c>
       <c r="H57" s="3">
-        <v>1401600</v>
+        <v>1423000</v>
       </c>
       <c r="I57" s="3">
-        <v>393300</v>
+        <v>1372000</v>
       </c>
       <c r="J57" s="3">
+        <v>385000</v>
+      </c>
+      <c r="K57" s="3">
         <v>292600</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1966,36 +2064,42 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1098700</v>
+        <v>1117600</v>
       </c>
       <c r="E59" s="3">
-        <v>850000</v>
+        <v>1075500</v>
       </c>
       <c r="F59" s="3">
-        <v>844400</v>
+        <v>832000</v>
       </c>
       <c r="G59" s="3">
-        <v>759600</v>
+        <v>826600</v>
       </c>
       <c r="H59" s="3">
-        <v>833000</v>
+        <v>743600</v>
       </c>
       <c r="I59" s="3">
-        <v>886600</v>
+        <v>815400</v>
       </c>
       <c r="J59" s="3">
+        <v>867800</v>
+      </c>
+      <c r="K59" s="3">
         <v>805000</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2020,63 +2124,72 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18565000</v>
+        <v>22089900</v>
       </c>
       <c r="E61" s="3">
-        <v>19276500</v>
+        <v>18172800</v>
       </c>
       <c r="F61" s="3">
-        <v>14959600</v>
+        <v>18868900</v>
       </c>
       <c r="G61" s="3">
-        <v>15449900</v>
+        <v>14643300</v>
       </c>
       <c r="H61" s="3">
-        <v>13995900</v>
+        <v>15123300</v>
       </c>
       <c r="I61" s="3">
-        <v>9438100</v>
+        <v>13700000</v>
       </c>
       <c r="J61" s="3">
+        <v>9238500</v>
+      </c>
+      <c r="K61" s="3">
         <v>8690400</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>131200</v>
+        <v>201300</v>
       </c>
       <c r="E62" s="3">
-        <v>171000</v>
+        <v>128500</v>
       </c>
       <c r="F62" s="3">
-        <v>141300</v>
+        <v>167400</v>
       </c>
       <c r="G62" s="3">
-        <v>118300</v>
+        <v>138300</v>
       </c>
       <c r="H62" s="3">
-        <v>63700</v>
+        <v>115800</v>
       </c>
       <c r="I62" s="3">
-        <v>16000</v>
+        <v>62300</v>
       </c>
       <c r="J62" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K62" s="3">
         <v>25200</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2101,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2155,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>237237000</v>
+        <v>252955000</v>
       </c>
       <c r="E66" s="3">
-        <v>226480000</v>
+        <v>232221000</v>
       </c>
       <c r="F66" s="3">
-        <v>210324000</v>
+        <v>221692000</v>
       </c>
       <c r="G66" s="3">
-        <v>204369000</v>
+        <v>205877000</v>
       </c>
       <c r="H66" s="3">
-        <v>190119000</v>
+        <v>200048000</v>
       </c>
       <c r="I66" s="3">
-        <v>167983000</v>
+        <v>186099000</v>
       </c>
       <c r="J66" s="3">
+        <v>164431000</v>
+      </c>
+      <c r="K66" s="3">
         <v>157786000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2196,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2222,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2249,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2262,23 +2394,26 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>613100</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>613100</v>
+        <v>600200</v>
       </c>
       <c r="H70" s="3">
-        <v>613100</v>
+        <v>600200</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>600200</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2303,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>28370400</v>
+        <v>22464900</v>
       </c>
       <c r="E72" s="3">
-        <v>19891600</v>
+        <v>27770700</v>
       </c>
       <c r="F72" s="3">
-        <v>18498400</v>
+        <v>19471000</v>
       </c>
       <c r="G72" s="3">
-        <v>17519300</v>
+        <v>18107300</v>
       </c>
       <c r="H72" s="3">
-        <v>16056900</v>
+        <v>17148900</v>
       </c>
       <c r="I72" s="3">
-        <v>22555800</v>
+        <v>15717400</v>
       </c>
       <c r="J72" s="3">
+        <v>22078900</v>
+      </c>
+      <c r="K72" s="3">
         <v>13697400</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2357,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2384,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2411,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27171300</v>
+        <v>27154800</v>
       </c>
       <c r="E76" s="3">
-        <v>24239000</v>
+        <v>26596800</v>
       </c>
       <c r="F76" s="3">
-        <v>22074000</v>
+        <v>23726600</v>
       </c>
       <c r="G76" s="3">
-        <v>21189900</v>
+        <v>21607200</v>
       </c>
       <c r="H76" s="3">
-        <v>18844000</v>
+        <v>20741800</v>
       </c>
       <c r="I76" s="3">
-        <v>18492700</v>
+        <v>18445500</v>
       </c>
       <c r="J76" s="3">
+        <v>18101700</v>
+      </c>
+      <c r="K76" s="3">
         <v>16934800</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2465,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2424400</v>
+        <v>2812700</v>
       </c>
       <c r="E81" s="3">
-        <v>2214900</v>
+        <v>2373100</v>
       </c>
       <c r="F81" s="3">
-        <v>2288400</v>
+        <v>2168100</v>
       </c>
       <c r="G81" s="3">
-        <v>2320400</v>
+        <v>2240000</v>
       </c>
       <c r="H81" s="3">
-        <v>2141800</v>
+        <v>2271300</v>
       </c>
       <c r="I81" s="3">
-        <v>1991000</v>
+        <v>2096500</v>
       </c>
       <c r="J81" s="3">
+        <v>1948900</v>
+      </c>
+      <c r="K81" s="3">
         <v>1639900</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2538,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>190400</v>
+        <v>196900</v>
       </c>
       <c r="E83" s="3">
-        <v>163500</v>
+        <v>186400</v>
       </c>
       <c r="F83" s="3">
-        <v>133800</v>
+        <v>160000</v>
       </c>
       <c r="G83" s="3">
-        <v>120500</v>
+        <v>131000</v>
       </c>
       <c r="H83" s="3">
-        <v>95900</v>
+        <v>117900</v>
       </c>
       <c r="I83" s="3">
-        <v>89600</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+        <v>93900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>87700</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2591,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2618,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2645,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2672,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2699,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2882300</v>
+        <v>-2659800</v>
       </c>
       <c r="E89" s="3">
-        <v>-9816700</v>
+        <v>2821300</v>
       </c>
       <c r="F89" s="3">
-        <v>487500</v>
+        <v>-9609100</v>
       </c>
       <c r="G89" s="3">
-        <v>5243200</v>
+        <v>477200</v>
       </c>
       <c r="H89" s="3">
-        <v>-8623400</v>
+        <v>5132300</v>
       </c>
       <c r="I89" s="3">
-        <v>4674800</v>
+        <v>-8441100</v>
       </c>
       <c r="J89" s="3">
+        <v>4576000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-7048700</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2740,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-257600</v>
+        <v>-372800</v>
       </c>
       <c r="E91" s="3">
-        <v>-282300</v>
+        <v>-252200</v>
       </c>
       <c r="F91" s="3">
-        <v>-510200</v>
+        <v>-276300</v>
       </c>
       <c r="G91" s="3">
-        <v>-190700</v>
+        <v>-499400</v>
       </c>
       <c r="H91" s="3">
-        <v>-163200</v>
+        <v>-186600</v>
       </c>
       <c r="I91" s="3">
-        <v>-162600</v>
+        <v>-159700</v>
       </c>
       <c r="J91" s="3">
+        <v>-159200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-138000</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2793,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2820,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-251400</v>
+        <v>-261300</v>
       </c>
       <c r="E94" s="3">
-        <v>-281600</v>
+        <v>-246100</v>
       </c>
       <c r="F94" s="3">
-        <v>-356500</v>
+        <v>-275600</v>
       </c>
       <c r="G94" s="3">
-        <v>44700</v>
+        <v>-349000</v>
       </c>
       <c r="H94" s="3">
-        <v>-52400</v>
+        <v>43700</v>
       </c>
       <c r="I94" s="3">
-        <v>-50000</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+        <v>-51300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-48900</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2861,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-490300</v>
+        <v>-1188400</v>
       </c>
       <c r="E96" s="3">
-        <v>-687200</v>
+        <v>-480000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1093200</v>
+        <v>-672700</v>
       </c>
       <c r="G96" s="3">
-        <v>-521800</v>
+        <v>-1070100</v>
       </c>
       <c r="H96" s="3">
-        <v>-889000</v>
+        <v>-510700</v>
       </c>
       <c r="I96" s="3">
-        <v>-771900</v>
+        <v>-870200</v>
       </c>
       <c r="J96" s="3">
+        <v>-755600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-474000</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2914,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2941,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2968,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-259600</v>
+        <v>1918200</v>
       </c>
       <c r="E100" s="3">
-        <v>3482000</v>
+        <v>-254100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1726100</v>
+        <v>3408400</v>
       </c>
       <c r="G100" s="3">
-        <v>883100</v>
+        <v>-1689600</v>
       </c>
       <c r="H100" s="3">
-        <v>3666800</v>
+        <v>864500</v>
       </c>
       <c r="I100" s="3">
-        <v>-36500</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+        <v>3589300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-473000</v>
+        <v>22600</v>
       </c>
       <c r="E101" s="3">
-        <v>107600</v>
+        <v>-463000</v>
       </c>
       <c r="F101" s="3">
-        <v>-230800</v>
+        <v>105400</v>
       </c>
       <c r="G101" s="3">
-        <v>67200</v>
+        <v>-225900</v>
       </c>
       <c r="H101" s="3">
-        <v>-188700</v>
+        <v>65800</v>
       </c>
       <c r="I101" s="3">
-        <v>-240000</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+        <v>-184700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-234900</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1898300</v>
+        <v>-980300</v>
       </c>
       <c r="E102" s="3">
-        <v>-6508600</v>
+        <v>1858100</v>
       </c>
       <c r="F102" s="3">
-        <v>-1826000</v>
+        <v>-6371000</v>
       </c>
       <c r="G102" s="3">
-        <v>6238200</v>
+        <v>-1787400</v>
       </c>
       <c r="H102" s="3">
-        <v>-5197600</v>
+        <v>6106300</v>
       </c>
       <c r="I102" s="3">
-        <v>4348400</v>
+        <v>-5087700</v>
       </c>
       <c r="J102" s="3">
+        <v>4256400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-3500100</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
